--- a/TestData/DimsTestData.xlsx
+++ b/TestData/DimsTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asheesh\PycharmProjects\nopcommerceApp\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE4950-BDD0-4AC0-BE9A-906524554468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF50993-D5A6-4846-87D7-0378576D5C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A8F26A2D-1F3B-4DC9-8C92-A9F3156E33E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A8F26A2D-1F3B-4DC9-8C92-A9F3156E33E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>email</t>
   </si>
@@ -117,6 +117,57 @@
   </si>
   <si>
     <t>1th Judicial Demo Court</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jacksmith@gmail.com</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Amin</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>aminWilli@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoffer</t>
+  </si>
+  <si>
+    <t>HofferClera@gmail.com</t>
+  </si>
+  <si>
+    <t>Smas</t>
+  </si>
+  <si>
+    <t>Emanual</t>
+  </si>
+  <si>
+    <t>EmanualSmas@gmail.com</t>
+  </si>
+  <si>
+    <t>clera</t>
   </si>
 </sst>
 </file>
@@ -590,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC568101-9FD4-4D4E-BCDE-815CC1F1D9EA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
@@ -713,12 +764,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C767D37D-82B0-4239-8536-612D9EFAC0F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FAAF6CD5-785B-46DF-A8BC-C46504343D0B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F3A4E96B-55F6-49E3-868A-ACE7AE32AA19}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{0FB706A6-93C9-4520-B745-ADA8C5352AF8}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0EFF811E-8E3F-4FEE-BBD7-5D08CF7AEB5A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>